--- a/03.DB저장/src/영양성분 섭취기준.xlsx
+++ b/03.DB저장/src/영양성분 섭취기준.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dldkr\github\yorehalre_project\03.DB저장\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CBBDB7-CCBE-4EB5-BDBE-1B8BF73D5282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895A74B9-4487-4445-9ED1-40D188EF8F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{3F6AFD39-B1A4-426A-8570-4F4F022C8AF4}"/>
+    <workbookView xWindow="34452" yWindow="708" windowWidth="19416" windowHeight="11496" xr2:uid="{3F6AFD39-B1A4-426A-8570-4F4F022C8AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="총정리" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="291">
   <si>
     <t>19-29</t>
   </si>
@@ -1190,9 +1190,6 @@
     <t>에너지(㎉)</t>
   </si>
   <si>
-    <t>800-2500</t>
-  </si>
-  <si>
     <t>8-45</t>
   </si>
   <si>
@@ -1202,30 +1199,15 @@
     <t>370-720</t>
   </si>
   <si>
-    <t>750-2000</t>
-  </si>
-  <si>
-    <t>700-2000</t>
-  </si>
-  <si>
     <t>7-45</t>
   </si>
   <si>
-    <t>700-3000</t>
-  </si>
-  <si>
-    <t>700-2500</t>
-  </si>
-  <si>
     <t>11-45</t>
   </si>
   <si>
     <t>280-630</t>
   </si>
   <si>
-    <t>800-2000</t>
-  </si>
-  <si>
     <t>6-45</t>
   </si>
   <si>
@@ -1238,31 +1220,16 @@
     <t>비타민 E(㎎ α-TE)</t>
   </si>
   <si>
-    <t>800-3000</t>
-  </si>
-  <si>
     <t>10-100</t>
   </si>
   <si>
     <t>12-540</t>
   </si>
   <si>
-    <t>100-2000</t>
-  </si>
-  <si>
     <t>400-1000</t>
   </si>
   <si>
-    <t>750-3000</t>
-  </si>
-  <si>
     <t>15-100</t>
-  </si>
-  <si>
-    <t>650-3000</t>
-  </si>
-  <si>
-    <t>600-3000</t>
   </si>
   <si>
     <t># 탄수화물 : 에너지 * 비율 /4</t>
@@ -1997,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50E7D9B-7D9B-42CE-A476-6B459DD20E08}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2006,7 +1973,9 @@
     <col min="9" max="9" width="10.8125" customWidth="1"/>
     <col min="10" max="10" width="16.1875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6875"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="10.9375" customWidth="1"/>
     <col min="18" max="18" width="16.0625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.6875" bestFit="1" customWidth="1"/>
@@ -2065,13 +2034,13 @@
         <v>224</v>
       </c>
       <c r="R1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="S1" t="s">
         <v>234</v>
       </c>
       <c r="T1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="U1" t="s">
         <v>232</v>
@@ -2112,7 +2081,7 @@
         <v>300</v>
       </c>
       <c r="J2" s="20">
-        <v>23.111111111111111</v>
+        <v>23.1111111111111</v>
       </c>
       <c r="K2" s="20">
         <v>2.8888888888888888</v>
@@ -2121,37 +2090,37 @@
         <v>210</v>
       </c>
       <c r="M2" t="s">
-        <v>257</v>
-      </c>
-      <c r="N2">
+        <v>45</v>
+      </c>
+      <c r="N2" s="3">
         <v>2300</v>
       </c>
       <c r="O2">
         <v>3500</v>
       </c>
       <c r="P2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q2" t="s">
         <v>258</v>
       </c>
-      <c r="Q2" t="s">
-        <v>259</v>
-      </c>
       <c r="R2" t="s">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="T2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U2">
         <v>75</v>
       </c>
       <c r="V2" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X2">
         <v>2</v>
@@ -2183,7 +2152,7 @@
         <v>300</v>
       </c>
       <c r="J3" s="20">
-        <v>22.222222222222221</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="K3" s="20">
         <v>2.7777777777777777</v>
@@ -2192,37 +2161,37 @@
         <v>400</v>
       </c>
       <c r="M3" t="s">
-        <v>257</v>
-      </c>
-      <c r="N3">
+        <v>45</v>
+      </c>
+      <c r="N3" s="3">
         <v>2300</v>
       </c>
       <c r="O3">
         <v>3500</v>
       </c>
       <c r="P3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R3" t="s">
-        <v>273</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="T3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U3">
         <v>75</v>
       </c>
       <c r="V3" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X3">
         <v>2</v>
@@ -2263,37 +2232,37 @@
         <v>500</v>
       </c>
       <c r="M4" t="s">
-        <v>261</v>
-      </c>
-      <c r="N4">
+        <v>46</v>
+      </c>
+      <c r="N4" s="3">
         <v>2300</v>
       </c>
       <c r="O4">
         <v>3500</v>
       </c>
       <c r="P4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R4" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="T4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U4">
         <v>75</v>
       </c>
       <c r="V4" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X4">
         <v>2</v>
@@ -2334,37 +2303,37 @@
         <v>310</v>
       </c>
       <c r="M5" t="s">
-        <v>262</v>
-      </c>
-      <c r="N5">
+        <v>47</v>
+      </c>
+      <c r="N5" s="3">
         <v>2100</v>
       </c>
       <c r="O5">
         <v>3500</v>
       </c>
       <c r="P5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R5" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="T5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U5">
         <v>75</v>
       </c>
       <c r="V5" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X5">
         <v>2</v>
@@ -2405,37 +2374,37 @@
         <v>280</v>
       </c>
       <c r="M6" t="s">
-        <v>262</v>
-      </c>
-      <c r="N6">
+        <v>47</v>
+      </c>
+      <c r="N6" s="3">
         <v>1700</v>
       </c>
       <c r="O6">
         <v>3500</v>
       </c>
       <c r="P6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R6" t="s">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="S6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="T6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U6">
         <v>75</v>
       </c>
       <c r="V6" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X6">
         <v>2</v>
@@ -2476,37 +2445,37 @@
         <v>150</v>
       </c>
       <c r="M7" t="s">
-        <v>265</v>
-      </c>
-      <c r="N7">
+        <v>48</v>
+      </c>
+      <c r="N7" s="3">
         <v>2300</v>
       </c>
       <c r="O7">
         <v>3500</v>
       </c>
       <c r="P7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q7" t="s">
+        <v>262</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" t="s">
         <v>267</v>
       </c>
-      <c r="R7" t="s">
-        <v>280</v>
-      </c>
-      <c r="S7" t="s">
-        <v>274</v>
-      </c>
       <c r="T7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U7">
         <v>65</v>
       </c>
       <c r="V7" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X7">
         <v>2</v>
@@ -2547,37 +2516,37 @@
         <v>260</v>
       </c>
       <c r="M8" t="s">
-        <v>265</v>
-      </c>
-      <c r="N8">
+        <v>48</v>
+      </c>
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
       <c r="O8">
         <v>3500</v>
       </c>
       <c r="P8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q8" t="s">
+        <v>262</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" t="s">
         <v>267</v>
       </c>
-      <c r="R8" t="s">
-        <v>280</v>
-      </c>
-      <c r="S8" t="s">
-        <v>274</v>
-      </c>
       <c r="T8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U8">
         <v>65</v>
       </c>
       <c r="V8" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X8">
         <v>2</v>
@@ -2618,37 +2587,37 @@
         <v>240</v>
       </c>
       <c r="M9" t="s">
-        <v>268</v>
-      </c>
-      <c r="N9">
+        <v>49</v>
+      </c>
+      <c r="N9" s="3">
         <v>2300</v>
       </c>
       <c r="O9">
         <v>3500</v>
       </c>
       <c r="P9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q9" t="s">
+        <v>262</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" t="s">
         <v>267</v>
       </c>
-      <c r="R9" t="s">
-        <v>281</v>
-      </c>
-      <c r="S9" t="s">
-        <v>274</v>
-      </c>
       <c r="T9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U9">
         <v>65</v>
       </c>
       <c r="V9" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X9">
         <v>2</v>
@@ -2689,37 +2658,37 @@
         <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>268</v>
-      </c>
-      <c r="N10">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
       <c r="O10">
         <v>3500</v>
       </c>
       <c r="P10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R10" t="s">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="T10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U10">
         <v>65</v>
       </c>
       <c r="V10" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X10">
         <v>2</v>
@@ -2760,37 +2729,37 @@
         <v>140</v>
       </c>
       <c r="M11" t="s">
-        <v>268</v>
-      </c>
-      <c r="N11">
+        <v>49</v>
+      </c>
+      <c r="N11" s="3">
         <v>1700</v>
       </c>
       <c r="O11">
         <v>3500</v>
       </c>
       <c r="P11" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>262</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" t="s">
         <v>270</v>
       </c>
-      <c r="Q11" t="s">
-        <v>267</v>
-      </c>
-      <c r="R11" t="s">
-        <v>281</v>
-      </c>
-      <c r="S11" t="s">
-        <v>279</v>
-      </c>
       <c r="T11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="U11">
         <v>65</v>
       </c>
       <c r="V11" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X11">
         <v>2</v>
@@ -2798,12 +2767,12 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A14" s="26" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A15" s="32" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -2812,7 +2781,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A16" s="34" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -2821,32 +2790,32 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2868,40 +2837,40 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="K4" s="35">
         <v>180</v>
@@ -2918,10 +2887,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="K5" s="37">
         <v>150</v>
@@ -2938,17 +2907,17 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.6">
@@ -3011,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2257CC-D064-4BEA-A996-125DEBB9489E}">
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
